--- a/docs/xBOM.xlsx
+++ b/docs/xBOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariusc\Desktop\FCU DEVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariusc\Documents\GitHub\HpaFCU_ArduinoNano\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AE6A6-2DE2-4956-96FD-C7B087FCD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31203B73-98E7-49B0-A328-C35639C983C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51B464C7-723F-4995-9E5E-24E93CA206DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{51B464C7-723F-4995-9E5E-24E93CA206DA}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t xml:space="preserve"> IRFZ44N </t>
-  </si>
-  <si>
     <t xml:space="preserve"> buzzer </t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005006199141296.html</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005006152077072.html</t>
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005005548274092.html</t>
@@ -135,6 +129,12 @@
   <si>
     <t xml:space="preserve"> 3 position slider
  (for mode selection)</t>
+  </si>
+  <si>
+    <t>IRLZ44N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/1005006228628494.html </t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,188 +532,190 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="7.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -721,18 +724,18 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{6449F30A-0B16-4894-A023-912FB6C15DFE}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{33F671CF-A21C-46BB-9451-AB1F93EFEF55}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{2D42FBBC-E30F-4DF9-98F6-B4108C0D8378}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{E5D1EDA1-AC5A-4CC4-8C1F-BB967E0AD697}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{F4D034CF-14E3-4EF5-AE2B-D06FB990BE88}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{8C1A2CD5-C071-443B-862D-85E73936DD52}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{9B562C76-1C45-4C34-B8F0-786081B8FD43}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{CD255656-98F1-4DD2-BE10-F835CEDAE1C9}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{3257B569-1E5A-4AD9-AC2E-29F1DAD127EC}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{10B734E7-B8C2-4171-8F46-D5290441A6DA}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{72FC4C50-916C-4DA3-9ADD-76AA19BE94DD}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{4236E55C-3F2D-4BE5-AA0F-5C893B8E75F0}"/>
-    <hyperlink ref="D4" r:id="rId13" xr:uid="{4C5D1E72-88D8-45AE-AB3F-953085964AEB}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{2D42FBBC-E30F-4DF9-98F6-B4108C0D8378}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{E5D1EDA1-AC5A-4CC4-8C1F-BB967E0AD697}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{F4D034CF-14E3-4EF5-AE2B-D06FB990BE88}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{8C1A2CD5-C071-443B-862D-85E73936DD52}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{9B562C76-1C45-4C34-B8F0-786081B8FD43}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{CD255656-98F1-4DD2-BE10-F835CEDAE1C9}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{3257B569-1E5A-4AD9-AC2E-29F1DAD127EC}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{10B734E7-B8C2-4171-8F46-D5290441A6DA}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{72FC4C50-916C-4DA3-9ADD-76AA19BE94DD}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{4236E55C-3F2D-4BE5-AA0F-5C893B8E75F0}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{4C5D1E72-88D8-45AE-AB3F-953085964AEB}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{6C1C4C7C-E595-49EA-9D7E-BF10B29CD55C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
